--- a/data/example/Power_Demand.xlsx
+++ b/data/example/Power_Demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\GIT\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C398F18-567F-48B2-A75E-192464A2D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7EBD50-AAAC-4400-8FD6-DDC90A9CBE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="79">
   <si>
     <t>Power - Demand</t>
   </si>
@@ -310,6 +310,33 @@
   </si>
   <si>
     <t>Node_9.1</t>
+  </si>
+  <si>
+    <t>Node_1</t>
+  </si>
+  <si>
+    <t>Node_2</t>
+  </si>
+  <si>
+    <t>Node_3</t>
+  </si>
+  <si>
+    <t>Node_4</t>
+  </si>
+  <si>
+    <t>Node_5</t>
+  </si>
+  <si>
+    <t>Node_6</t>
+  </si>
+  <si>
+    <t>Node_7</t>
+  </si>
+  <si>
+    <t>Node_8</t>
+  </si>
+  <si>
+    <t>Node_9</t>
   </si>
 </sst>
 </file>
@@ -745,13 +772,13 @@
   <sheetPr>
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="A1:AD70"/>
+  <dimension ref="A1:AD133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6685,6 +6712,5424 @@
         <v>199.90299999999999</v>
       </c>
     </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C71" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G71" s="14">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14">
+        <v>0</v>
+      </c>
+      <c r="I71" s="14">
+        <v>0</v>
+      </c>
+      <c r="J71" s="14">
+        <v>0</v>
+      </c>
+      <c r="K71" s="14">
+        <v>0</v>
+      </c>
+      <c r="L71" s="14">
+        <v>0</v>
+      </c>
+      <c r="M71" s="14">
+        <v>0</v>
+      </c>
+      <c r="N71" s="14">
+        <v>0</v>
+      </c>
+      <c r="O71" s="14">
+        <v>0</v>
+      </c>
+      <c r="P71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="14">
+        <v>0</v>
+      </c>
+      <c r="R71" s="14">
+        <v>0</v>
+      </c>
+      <c r="S71" s="14">
+        <v>0</v>
+      </c>
+      <c r="T71" s="14">
+        <v>0</v>
+      </c>
+      <c r="U71" s="14">
+        <v>0</v>
+      </c>
+      <c r="V71" s="14">
+        <v>0</v>
+      </c>
+      <c r="W71" s="14">
+        <v>0</v>
+      </c>
+      <c r="X71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C72" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" s="14">
+        <v>0</v>
+      </c>
+      <c r="H72" s="14">
+        <v>0</v>
+      </c>
+      <c r="I72" s="14">
+        <v>0</v>
+      </c>
+      <c r="J72" s="14">
+        <v>0</v>
+      </c>
+      <c r="K72" s="14">
+        <v>0</v>
+      </c>
+      <c r="L72" s="14">
+        <v>0</v>
+      </c>
+      <c r="M72" s="14">
+        <v>0</v>
+      </c>
+      <c r="N72" s="14">
+        <v>0</v>
+      </c>
+      <c r="O72" s="14">
+        <v>0</v>
+      </c>
+      <c r="P72" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="14">
+        <v>0</v>
+      </c>
+      <c r="R72" s="14">
+        <v>0</v>
+      </c>
+      <c r="S72" s="14">
+        <v>0</v>
+      </c>
+      <c r="T72" s="14">
+        <v>0</v>
+      </c>
+      <c r="U72" s="14">
+        <v>0</v>
+      </c>
+      <c r="V72" s="14">
+        <v>0</v>
+      </c>
+      <c r="W72" s="14">
+        <v>0</v>
+      </c>
+      <c r="X72" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C73" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G73" s="14">
+        <v>0</v>
+      </c>
+      <c r="H73" s="14">
+        <v>0</v>
+      </c>
+      <c r="I73" s="14">
+        <v>0</v>
+      </c>
+      <c r="J73" s="14">
+        <v>0</v>
+      </c>
+      <c r="K73" s="14">
+        <v>0</v>
+      </c>
+      <c r="L73" s="14">
+        <v>0</v>
+      </c>
+      <c r="M73" s="14">
+        <v>0</v>
+      </c>
+      <c r="N73" s="14">
+        <v>0</v>
+      </c>
+      <c r="O73" s="14">
+        <v>0</v>
+      </c>
+      <c r="P73" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="14">
+        <v>0</v>
+      </c>
+      <c r="R73" s="14">
+        <v>0</v>
+      </c>
+      <c r="S73" s="14">
+        <v>0</v>
+      </c>
+      <c r="T73" s="14">
+        <v>0</v>
+      </c>
+      <c r="U73" s="14">
+        <v>0</v>
+      </c>
+      <c r="V73" s="14">
+        <v>0</v>
+      </c>
+      <c r="W73" s="14">
+        <v>0</v>
+      </c>
+      <c r="X73" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C74" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74" s="14">
+        <v>0</v>
+      </c>
+      <c r="H74" s="14">
+        <v>0</v>
+      </c>
+      <c r="I74" s="14">
+        <v>0</v>
+      </c>
+      <c r="J74" s="14">
+        <v>0</v>
+      </c>
+      <c r="K74" s="14">
+        <v>0</v>
+      </c>
+      <c r="L74" s="14">
+        <v>0</v>
+      </c>
+      <c r="M74" s="14">
+        <v>0</v>
+      </c>
+      <c r="N74" s="14">
+        <v>0</v>
+      </c>
+      <c r="O74" s="14">
+        <v>0</v>
+      </c>
+      <c r="P74" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="14">
+        <v>0</v>
+      </c>
+      <c r="R74" s="14">
+        <v>0</v>
+      </c>
+      <c r="S74" s="14">
+        <v>0</v>
+      </c>
+      <c r="T74" s="14">
+        <v>0</v>
+      </c>
+      <c r="U74" s="14">
+        <v>0</v>
+      </c>
+      <c r="V74" s="14">
+        <v>0</v>
+      </c>
+      <c r="W74" s="14">
+        <v>0</v>
+      </c>
+      <c r="X74" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C75" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="14">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14">
+        <v>0</v>
+      </c>
+      <c r="I75" s="14">
+        <v>0</v>
+      </c>
+      <c r="J75" s="14">
+        <v>0</v>
+      </c>
+      <c r="K75" s="14">
+        <v>0</v>
+      </c>
+      <c r="L75" s="14">
+        <v>0</v>
+      </c>
+      <c r="M75" s="14">
+        <v>0</v>
+      </c>
+      <c r="N75" s="14">
+        <v>0</v>
+      </c>
+      <c r="O75" s="14">
+        <v>0</v>
+      </c>
+      <c r="P75" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="14">
+        <v>0</v>
+      </c>
+      <c r="R75" s="14">
+        <v>0</v>
+      </c>
+      <c r="S75" s="14">
+        <v>0</v>
+      </c>
+      <c r="T75" s="14">
+        <v>0</v>
+      </c>
+      <c r="U75" s="14">
+        <v>0</v>
+      </c>
+      <c r="V75" s="14">
+        <v>0</v>
+      </c>
+      <c r="W75" s="14">
+        <v>0</v>
+      </c>
+      <c r="X75" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C76" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="14">
+        <v>0</v>
+      </c>
+      <c r="H76" s="14">
+        <v>0</v>
+      </c>
+      <c r="I76" s="14">
+        <v>0</v>
+      </c>
+      <c r="J76" s="14">
+        <v>0</v>
+      </c>
+      <c r="K76" s="14">
+        <v>0</v>
+      </c>
+      <c r="L76" s="14">
+        <v>0</v>
+      </c>
+      <c r="M76" s="14">
+        <v>0</v>
+      </c>
+      <c r="N76" s="14">
+        <v>0</v>
+      </c>
+      <c r="O76" s="14">
+        <v>0</v>
+      </c>
+      <c r="P76" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="14">
+        <v>0</v>
+      </c>
+      <c r="R76" s="14">
+        <v>0</v>
+      </c>
+      <c r="S76" s="14">
+        <v>0</v>
+      </c>
+      <c r="T76" s="14">
+        <v>0</v>
+      </c>
+      <c r="U76" s="14">
+        <v>0</v>
+      </c>
+      <c r="V76" s="14">
+        <v>0</v>
+      </c>
+      <c r="W76" s="14">
+        <v>0</v>
+      </c>
+      <c r="X76" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C77" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77" s="14">
+        <v>0</v>
+      </c>
+      <c r="H77" s="14">
+        <v>0</v>
+      </c>
+      <c r="I77" s="14">
+        <v>0</v>
+      </c>
+      <c r="J77" s="14">
+        <v>0</v>
+      </c>
+      <c r="K77" s="14">
+        <v>0</v>
+      </c>
+      <c r="L77" s="14">
+        <v>0</v>
+      </c>
+      <c r="M77" s="14">
+        <v>0</v>
+      </c>
+      <c r="N77" s="14">
+        <v>0</v>
+      </c>
+      <c r="O77" s="14">
+        <v>0</v>
+      </c>
+      <c r="P77" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="14">
+        <v>0</v>
+      </c>
+      <c r="R77" s="14">
+        <v>0</v>
+      </c>
+      <c r="S77" s="14">
+        <v>0</v>
+      </c>
+      <c r="T77" s="14">
+        <v>0</v>
+      </c>
+      <c r="U77" s="14">
+        <v>0</v>
+      </c>
+      <c r="V77" s="14">
+        <v>0</v>
+      </c>
+      <c r="W77" s="14">
+        <v>0</v>
+      </c>
+      <c r="X77" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C78" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="14">
+        <v>0</v>
+      </c>
+      <c r="H78" s="14">
+        <v>0</v>
+      </c>
+      <c r="I78" s="14">
+        <v>0</v>
+      </c>
+      <c r="J78" s="14">
+        <v>0</v>
+      </c>
+      <c r="K78" s="14">
+        <v>0</v>
+      </c>
+      <c r="L78" s="14">
+        <v>0</v>
+      </c>
+      <c r="M78" s="14">
+        <v>0</v>
+      </c>
+      <c r="N78" s="14">
+        <v>0</v>
+      </c>
+      <c r="O78" s="14">
+        <v>0</v>
+      </c>
+      <c r="P78" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="14">
+        <v>0</v>
+      </c>
+      <c r="R78" s="14">
+        <v>0</v>
+      </c>
+      <c r="S78" s="14">
+        <v>0</v>
+      </c>
+      <c r="T78" s="14">
+        <v>0</v>
+      </c>
+      <c r="U78" s="14">
+        <v>0</v>
+      </c>
+      <c r="V78" s="14">
+        <v>0</v>
+      </c>
+      <c r="W78" s="14">
+        <v>0</v>
+      </c>
+      <c r="X78" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C79" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="14">
+        <v>0</v>
+      </c>
+      <c r="H79" s="14">
+        <v>0</v>
+      </c>
+      <c r="I79" s="14">
+        <v>0</v>
+      </c>
+      <c r="J79" s="14">
+        <v>0</v>
+      </c>
+      <c r="K79" s="14">
+        <v>0</v>
+      </c>
+      <c r="L79" s="14">
+        <v>0</v>
+      </c>
+      <c r="M79" s="14">
+        <v>0</v>
+      </c>
+      <c r="N79" s="14">
+        <v>0</v>
+      </c>
+      <c r="O79" s="14">
+        <v>0</v>
+      </c>
+      <c r="P79" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="14">
+        <v>0</v>
+      </c>
+      <c r="R79" s="14">
+        <v>0</v>
+      </c>
+      <c r="S79" s="14">
+        <v>0</v>
+      </c>
+      <c r="T79" s="14">
+        <v>0</v>
+      </c>
+      <c r="U79" s="14">
+        <v>0</v>
+      </c>
+      <c r="V79" s="14">
+        <v>0</v>
+      </c>
+      <c r="W79" s="14">
+        <v>0</v>
+      </c>
+      <c r="X79" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD79" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:30" x14ac:dyDescent="0.45">
+      <c r="C80" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80" s="14">
+        <v>0</v>
+      </c>
+      <c r="H80" s="14">
+        <v>0</v>
+      </c>
+      <c r="I80" s="14">
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
+        <v>0</v>
+      </c>
+      <c r="K80" s="14">
+        <v>0</v>
+      </c>
+      <c r="L80" s="14">
+        <v>0</v>
+      </c>
+      <c r="M80" s="14">
+        <v>0</v>
+      </c>
+      <c r="N80" s="14">
+        <v>0</v>
+      </c>
+      <c r="O80" s="14">
+        <v>0</v>
+      </c>
+      <c r="P80" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="14">
+        <v>0</v>
+      </c>
+      <c r="R80" s="14">
+        <v>0</v>
+      </c>
+      <c r="S80" s="14">
+        <v>0</v>
+      </c>
+      <c r="T80" s="14">
+        <v>0</v>
+      </c>
+      <c r="U80" s="14">
+        <v>0</v>
+      </c>
+      <c r="V80" s="14">
+        <v>0</v>
+      </c>
+      <c r="W80" s="14">
+        <v>0</v>
+      </c>
+      <c r="X80" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y80" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD80" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C81" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81" s="14">
+        <v>0</v>
+      </c>
+      <c r="H81" s="14">
+        <v>0</v>
+      </c>
+      <c r="I81" s="14">
+        <v>0</v>
+      </c>
+      <c r="J81" s="14">
+        <v>0</v>
+      </c>
+      <c r="K81" s="14">
+        <v>0</v>
+      </c>
+      <c r="L81" s="14">
+        <v>0</v>
+      </c>
+      <c r="M81" s="14">
+        <v>0</v>
+      </c>
+      <c r="N81" s="14">
+        <v>0</v>
+      </c>
+      <c r="O81" s="14">
+        <v>0</v>
+      </c>
+      <c r="P81" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="14">
+        <v>0</v>
+      </c>
+      <c r="R81" s="14">
+        <v>0</v>
+      </c>
+      <c r="S81" s="14">
+        <v>0</v>
+      </c>
+      <c r="T81" s="14">
+        <v>0</v>
+      </c>
+      <c r="U81" s="14">
+        <v>0</v>
+      </c>
+      <c r="V81" s="14">
+        <v>0</v>
+      </c>
+      <c r="W81" s="14">
+        <v>0</v>
+      </c>
+      <c r="X81" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C82" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82" s="14">
+        <v>0</v>
+      </c>
+      <c r="H82" s="14">
+        <v>0</v>
+      </c>
+      <c r="I82" s="14">
+        <v>0</v>
+      </c>
+      <c r="J82" s="14">
+        <v>0</v>
+      </c>
+      <c r="K82" s="14">
+        <v>0</v>
+      </c>
+      <c r="L82" s="14">
+        <v>0</v>
+      </c>
+      <c r="M82" s="14">
+        <v>0</v>
+      </c>
+      <c r="N82" s="14">
+        <v>0</v>
+      </c>
+      <c r="O82" s="14">
+        <v>0</v>
+      </c>
+      <c r="P82" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="14">
+        <v>0</v>
+      </c>
+      <c r="R82" s="14">
+        <v>0</v>
+      </c>
+      <c r="S82" s="14">
+        <v>0</v>
+      </c>
+      <c r="T82" s="14">
+        <v>0</v>
+      </c>
+      <c r="U82" s="14">
+        <v>0</v>
+      </c>
+      <c r="V82" s="14">
+        <v>0</v>
+      </c>
+      <c r="W82" s="14">
+        <v>0</v>
+      </c>
+      <c r="X82" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD82" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C83" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G83" s="14">
+        <v>0</v>
+      </c>
+      <c r="H83" s="14">
+        <v>0</v>
+      </c>
+      <c r="I83" s="14">
+        <v>0</v>
+      </c>
+      <c r="J83" s="14">
+        <v>0</v>
+      </c>
+      <c r="K83" s="14">
+        <v>0</v>
+      </c>
+      <c r="L83" s="14">
+        <v>0</v>
+      </c>
+      <c r="M83" s="14">
+        <v>0</v>
+      </c>
+      <c r="N83" s="14">
+        <v>0</v>
+      </c>
+      <c r="O83" s="14">
+        <v>0</v>
+      </c>
+      <c r="P83" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="14">
+        <v>0</v>
+      </c>
+      <c r="R83" s="14">
+        <v>0</v>
+      </c>
+      <c r="S83" s="14">
+        <v>0</v>
+      </c>
+      <c r="T83" s="14">
+        <v>0</v>
+      </c>
+      <c r="U83" s="14">
+        <v>0</v>
+      </c>
+      <c r="V83" s="14">
+        <v>0</v>
+      </c>
+      <c r="W83" s="14">
+        <v>0</v>
+      </c>
+      <c r="X83" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C84" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84" s="14">
+        <v>0</v>
+      </c>
+      <c r="H84" s="14">
+        <v>0</v>
+      </c>
+      <c r="I84" s="14">
+        <v>0</v>
+      </c>
+      <c r="J84" s="14">
+        <v>0</v>
+      </c>
+      <c r="K84" s="14">
+        <v>0</v>
+      </c>
+      <c r="L84" s="14">
+        <v>0</v>
+      </c>
+      <c r="M84" s="14">
+        <v>0</v>
+      </c>
+      <c r="N84" s="14">
+        <v>0</v>
+      </c>
+      <c r="O84" s="14">
+        <v>0</v>
+      </c>
+      <c r="P84" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="14">
+        <v>0</v>
+      </c>
+      <c r="R84" s="14">
+        <v>0</v>
+      </c>
+      <c r="S84" s="14">
+        <v>0</v>
+      </c>
+      <c r="T84" s="14">
+        <v>0</v>
+      </c>
+      <c r="U84" s="14">
+        <v>0</v>
+      </c>
+      <c r="V84" s="14">
+        <v>0</v>
+      </c>
+      <c r="W84" s="14">
+        <v>0</v>
+      </c>
+      <c r="X84" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C85" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G85" s="14">
+        <v>0</v>
+      </c>
+      <c r="H85" s="14">
+        <v>0</v>
+      </c>
+      <c r="I85" s="14">
+        <v>0</v>
+      </c>
+      <c r="J85" s="14">
+        <v>0</v>
+      </c>
+      <c r="K85" s="14">
+        <v>0</v>
+      </c>
+      <c r="L85" s="14">
+        <v>0</v>
+      </c>
+      <c r="M85" s="14">
+        <v>0</v>
+      </c>
+      <c r="N85" s="14">
+        <v>0</v>
+      </c>
+      <c r="O85" s="14">
+        <v>0</v>
+      </c>
+      <c r="P85" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="14">
+        <v>0</v>
+      </c>
+      <c r="R85" s="14">
+        <v>0</v>
+      </c>
+      <c r="S85" s="14">
+        <v>0</v>
+      </c>
+      <c r="T85" s="14">
+        <v>0</v>
+      </c>
+      <c r="U85" s="14">
+        <v>0</v>
+      </c>
+      <c r="V85" s="14">
+        <v>0</v>
+      </c>
+      <c r="W85" s="14">
+        <v>0</v>
+      </c>
+      <c r="X85" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C86" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G86" s="14">
+        <v>0</v>
+      </c>
+      <c r="H86" s="14">
+        <v>0</v>
+      </c>
+      <c r="I86" s="14">
+        <v>0</v>
+      </c>
+      <c r="J86" s="14">
+        <v>0</v>
+      </c>
+      <c r="K86" s="14">
+        <v>0</v>
+      </c>
+      <c r="L86" s="14">
+        <v>0</v>
+      </c>
+      <c r="M86" s="14">
+        <v>0</v>
+      </c>
+      <c r="N86" s="14">
+        <v>0</v>
+      </c>
+      <c r="O86" s="14">
+        <v>0</v>
+      </c>
+      <c r="P86" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="14">
+        <v>0</v>
+      </c>
+      <c r="R86" s="14">
+        <v>0</v>
+      </c>
+      <c r="S86" s="14">
+        <v>0</v>
+      </c>
+      <c r="T86" s="14">
+        <v>0</v>
+      </c>
+      <c r="U86" s="14">
+        <v>0</v>
+      </c>
+      <c r="V86" s="14">
+        <v>0</v>
+      </c>
+      <c r="W86" s="14">
+        <v>0</v>
+      </c>
+      <c r="X86" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C87" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87" s="14">
+        <v>0</v>
+      </c>
+      <c r="H87" s="14">
+        <v>0</v>
+      </c>
+      <c r="I87" s="14">
+        <v>0</v>
+      </c>
+      <c r="J87" s="14">
+        <v>0</v>
+      </c>
+      <c r="K87" s="14">
+        <v>0</v>
+      </c>
+      <c r="L87" s="14">
+        <v>0</v>
+      </c>
+      <c r="M87" s="14">
+        <v>0</v>
+      </c>
+      <c r="N87" s="14">
+        <v>0</v>
+      </c>
+      <c r="O87" s="14">
+        <v>0</v>
+      </c>
+      <c r="P87" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="14">
+        <v>0</v>
+      </c>
+      <c r="R87" s="14">
+        <v>0</v>
+      </c>
+      <c r="S87" s="14">
+        <v>0</v>
+      </c>
+      <c r="T87" s="14">
+        <v>0</v>
+      </c>
+      <c r="U87" s="14">
+        <v>0</v>
+      </c>
+      <c r="V87" s="14">
+        <v>0</v>
+      </c>
+      <c r="W87" s="14">
+        <v>0</v>
+      </c>
+      <c r="X87" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C88" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" s="14">
+        <v>0</v>
+      </c>
+      <c r="H88" s="14">
+        <v>0</v>
+      </c>
+      <c r="I88" s="14">
+        <v>0</v>
+      </c>
+      <c r="J88" s="14">
+        <v>0</v>
+      </c>
+      <c r="K88" s="14">
+        <v>0</v>
+      </c>
+      <c r="L88" s="14">
+        <v>0</v>
+      </c>
+      <c r="M88" s="14">
+        <v>0</v>
+      </c>
+      <c r="N88" s="14">
+        <v>0</v>
+      </c>
+      <c r="O88" s="14">
+        <v>0</v>
+      </c>
+      <c r="P88" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="14">
+        <v>0</v>
+      </c>
+      <c r="R88" s="14">
+        <v>0</v>
+      </c>
+      <c r="S88" s="14">
+        <v>0</v>
+      </c>
+      <c r="T88" s="14">
+        <v>0</v>
+      </c>
+      <c r="U88" s="14">
+        <v>0</v>
+      </c>
+      <c r="V88" s="14">
+        <v>0</v>
+      </c>
+      <c r="W88" s="14">
+        <v>0</v>
+      </c>
+      <c r="X88" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C89" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="14">
+        <v>0</v>
+      </c>
+      <c r="H89" s="14">
+        <v>0</v>
+      </c>
+      <c r="I89" s="14">
+        <v>0</v>
+      </c>
+      <c r="J89" s="14">
+        <v>0</v>
+      </c>
+      <c r="K89" s="14">
+        <v>0</v>
+      </c>
+      <c r="L89" s="14">
+        <v>0</v>
+      </c>
+      <c r="M89" s="14">
+        <v>0</v>
+      </c>
+      <c r="N89" s="14">
+        <v>0</v>
+      </c>
+      <c r="O89" s="14">
+        <v>0</v>
+      </c>
+      <c r="P89" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="14">
+        <v>0</v>
+      </c>
+      <c r="R89" s="14">
+        <v>0</v>
+      </c>
+      <c r="S89" s="14">
+        <v>0</v>
+      </c>
+      <c r="T89" s="14">
+        <v>0</v>
+      </c>
+      <c r="U89" s="14">
+        <v>0</v>
+      </c>
+      <c r="V89" s="14">
+        <v>0</v>
+      </c>
+      <c r="W89" s="14">
+        <v>0</v>
+      </c>
+      <c r="X89" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C90" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G90" s="14">
+        <v>0</v>
+      </c>
+      <c r="H90" s="14">
+        <v>0</v>
+      </c>
+      <c r="I90" s="14">
+        <v>0</v>
+      </c>
+      <c r="J90" s="14">
+        <v>0</v>
+      </c>
+      <c r="K90" s="14">
+        <v>0</v>
+      </c>
+      <c r="L90" s="14">
+        <v>0</v>
+      </c>
+      <c r="M90" s="14">
+        <v>0</v>
+      </c>
+      <c r="N90" s="14">
+        <v>0</v>
+      </c>
+      <c r="O90" s="14">
+        <v>0</v>
+      </c>
+      <c r="P90" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="14">
+        <v>0</v>
+      </c>
+      <c r="R90" s="14">
+        <v>0</v>
+      </c>
+      <c r="S90" s="14">
+        <v>0</v>
+      </c>
+      <c r="T90" s="14">
+        <v>0</v>
+      </c>
+      <c r="U90" s="14">
+        <v>0</v>
+      </c>
+      <c r="V90" s="14">
+        <v>0</v>
+      </c>
+      <c r="W90" s="14">
+        <v>0</v>
+      </c>
+      <c r="X90" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C91" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G91" s="14">
+        <v>0</v>
+      </c>
+      <c r="H91" s="14">
+        <v>0</v>
+      </c>
+      <c r="I91" s="14">
+        <v>0</v>
+      </c>
+      <c r="J91" s="14">
+        <v>0</v>
+      </c>
+      <c r="K91" s="14">
+        <v>0</v>
+      </c>
+      <c r="L91" s="14">
+        <v>0</v>
+      </c>
+      <c r="M91" s="14">
+        <v>0</v>
+      </c>
+      <c r="N91" s="14">
+        <v>0</v>
+      </c>
+      <c r="O91" s="14">
+        <v>0</v>
+      </c>
+      <c r="P91" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="14">
+        <v>0</v>
+      </c>
+      <c r="R91" s="14">
+        <v>0</v>
+      </c>
+      <c r="S91" s="14">
+        <v>0</v>
+      </c>
+      <c r="T91" s="14">
+        <v>0</v>
+      </c>
+      <c r="U91" s="14">
+        <v>0</v>
+      </c>
+      <c r="V91" s="14">
+        <v>0</v>
+      </c>
+      <c r="W91" s="14">
+        <v>0</v>
+      </c>
+      <c r="X91" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C92" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G92" s="14">
+        <v>0</v>
+      </c>
+      <c r="H92" s="14">
+        <v>0</v>
+      </c>
+      <c r="I92" s="14">
+        <v>0</v>
+      </c>
+      <c r="J92" s="14">
+        <v>0</v>
+      </c>
+      <c r="K92" s="14">
+        <v>0</v>
+      </c>
+      <c r="L92" s="14">
+        <v>0</v>
+      </c>
+      <c r="M92" s="14">
+        <v>0</v>
+      </c>
+      <c r="N92" s="14">
+        <v>0</v>
+      </c>
+      <c r="O92" s="14">
+        <v>0</v>
+      </c>
+      <c r="P92" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="14">
+        <v>0</v>
+      </c>
+      <c r="R92" s="14">
+        <v>0</v>
+      </c>
+      <c r="S92" s="14">
+        <v>0</v>
+      </c>
+      <c r="T92" s="14">
+        <v>0</v>
+      </c>
+      <c r="U92" s="14">
+        <v>0</v>
+      </c>
+      <c r="V92" s="14">
+        <v>0</v>
+      </c>
+      <c r="W92" s="14">
+        <v>0</v>
+      </c>
+      <c r="X92" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C93" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G93" s="14">
+        <v>0</v>
+      </c>
+      <c r="H93" s="14">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <v>0</v>
+      </c>
+      <c r="K93" s="14">
+        <v>0</v>
+      </c>
+      <c r="L93" s="14">
+        <v>0</v>
+      </c>
+      <c r="M93" s="14">
+        <v>0</v>
+      </c>
+      <c r="N93" s="14">
+        <v>0</v>
+      </c>
+      <c r="O93" s="14">
+        <v>0</v>
+      </c>
+      <c r="P93" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="14">
+        <v>0</v>
+      </c>
+      <c r="R93" s="14">
+        <v>0</v>
+      </c>
+      <c r="S93" s="14">
+        <v>0</v>
+      </c>
+      <c r="T93" s="14">
+        <v>0</v>
+      </c>
+      <c r="U93" s="14">
+        <v>0</v>
+      </c>
+      <c r="V93" s="14">
+        <v>0</v>
+      </c>
+      <c r="W93" s="14">
+        <v>0</v>
+      </c>
+      <c r="X93" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C94" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G94" s="14">
+        <v>0</v>
+      </c>
+      <c r="H94" s="14">
+        <v>0</v>
+      </c>
+      <c r="I94" s="14">
+        <v>0</v>
+      </c>
+      <c r="J94" s="14">
+        <v>0</v>
+      </c>
+      <c r="K94" s="14">
+        <v>0</v>
+      </c>
+      <c r="L94" s="14">
+        <v>0</v>
+      </c>
+      <c r="M94" s="14">
+        <v>0</v>
+      </c>
+      <c r="N94" s="14">
+        <v>0</v>
+      </c>
+      <c r="O94" s="14">
+        <v>0</v>
+      </c>
+      <c r="P94" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="14">
+        <v>0</v>
+      </c>
+      <c r="R94" s="14">
+        <v>0</v>
+      </c>
+      <c r="S94" s="14">
+        <v>0</v>
+      </c>
+      <c r="T94" s="14">
+        <v>0</v>
+      </c>
+      <c r="U94" s="14">
+        <v>0</v>
+      </c>
+      <c r="V94" s="14">
+        <v>0</v>
+      </c>
+      <c r="W94" s="14">
+        <v>0</v>
+      </c>
+      <c r="X94" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C95" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G95" s="14">
+        <v>0</v>
+      </c>
+      <c r="H95" s="14">
+        <v>0</v>
+      </c>
+      <c r="I95" s="14">
+        <v>0</v>
+      </c>
+      <c r="J95" s="14">
+        <v>0</v>
+      </c>
+      <c r="K95" s="14">
+        <v>0</v>
+      </c>
+      <c r="L95" s="14">
+        <v>0</v>
+      </c>
+      <c r="M95" s="14">
+        <v>0</v>
+      </c>
+      <c r="N95" s="14">
+        <v>0</v>
+      </c>
+      <c r="O95" s="14">
+        <v>0</v>
+      </c>
+      <c r="P95" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="14">
+        <v>0</v>
+      </c>
+      <c r="R95" s="14">
+        <v>0</v>
+      </c>
+      <c r="S95" s="14">
+        <v>0</v>
+      </c>
+      <c r="T95" s="14">
+        <v>0</v>
+      </c>
+      <c r="U95" s="14">
+        <v>0</v>
+      </c>
+      <c r="V95" s="14">
+        <v>0</v>
+      </c>
+      <c r="W95" s="14">
+        <v>0</v>
+      </c>
+      <c r="X95" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C96" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G96" s="14">
+        <v>0</v>
+      </c>
+      <c r="H96" s="14">
+        <v>0</v>
+      </c>
+      <c r="I96" s="14">
+        <v>0</v>
+      </c>
+      <c r="J96" s="14">
+        <v>0</v>
+      </c>
+      <c r="K96" s="14">
+        <v>0</v>
+      </c>
+      <c r="L96" s="14">
+        <v>0</v>
+      </c>
+      <c r="M96" s="14">
+        <v>0</v>
+      </c>
+      <c r="N96" s="14">
+        <v>0</v>
+      </c>
+      <c r="O96" s="14">
+        <v>0</v>
+      </c>
+      <c r="P96" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="14">
+        <v>0</v>
+      </c>
+      <c r="R96" s="14">
+        <v>0</v>
+      </c>
+      <c r="S96" s="14">
+        <v>0</v>
+      </c>
+      <c r="T96" s="14">
+        <v>0</v>
+      </c>
+      <c r="U96" s="14">
+        <v>0</v>
+      </c>
+      <c r="V96" s="14">
+        <v>0</v>
+      </c>
+      <c r="W96" s="14">
+        <v>0</v>
+      </c>
+      <c r="X96" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C97" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G97" s="14">
+        <v>0</v>
+      </c>
+      <c r="H97" s="14">
+        <v>0</v>
+      </c>
+      <c r="I97" s="14">
+        <v>0</v>
+      </c>
+      <c r="J97" s="14">
+        <v>0</v>
+      </c>
+      <c r="K97" s="14">
+        <v>0</v>
+      </c>
+      <c r="L97" s="14">
+        <v>0</v>
+      </c>
+      <c r="M97" s="14">
+        <v>0</v>
+      </c>
+      <c r="N97" s="14">
+        <v>0</v>
+      </c>
+      <c r="O97" s="14">
+        <v>0</v>
+      </c>
+      <c r="P97" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="14">
+        <v>0</v>
+      </c>
+      <c r="R97" s="14">
+        <v>0</v>
+      </c>
+      <c r="S97" s="14">
+        <v>0</v>
+      </c>
+      <c r="T97" s="14">
+        <v>0</v>
+      </c>
+      <c r="U97" s="14">
+        <v>0</v>
+      </c>
+      <c r="V97" s="14">
+        <v>0</v>
+      </c>
+      <c r="W97" s="14">
+        <v>0</v>
+      </c>
+      <c r="X97" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C98" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="14">
+        <v>0</v>
+      </c>
+      <c r="H98" s="14">
+        <v>0</v>
+      </c>
+      <c r="I98" s="14">
+        <v>0</v>
+      </c>
+      <c r="J98" s="14">
+        <v>0</v>
+      </c>
+      <c r="K98" s="14">
+        <v>0</v>
+      </c>
+      <c r="L98" s="14">
+        <v>0</v>
+      </c>
+      <c r="M98" s="14">
+        <v>0</v>
+      </c>
+      <c r="N98" s="14">
+        <v>0</v>
+      </c>
+      <c r="O98" s="14">
+        <v>0</v>
+      </c>
+      <c r="P98" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="14">
+        <v>0</v>
+      </c>
+      <c r="R98" s="14">
+        <v>0</v>
+      </c>
+      <c r="S98" s="14">
+        <v>0</v>
+      </c>
+      <c r="T98" s="14">
+        <v>0</v>
+      </c>
+      <c r="U98" s="14">
+        <v>0</v>
+      </c>
+      <c r="V98" s="14">
+        <v>0</v>
+      </c>
+      <c r="W98" s="14">
+        <v>0</v>
+      </c>
+      <c r="X98" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C99" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" s="14">
+        <v>0</v>
+      </c>
+      <c r="H99" s="14">
+        <v>0</v>
+      </c>
+      <c r="I99" s="14">
+        <v>0</v>
+      </c>
+      <c r="J99" s="14">
+        <v>0</v>
+      </c>
+      <c r="K99" s="14">
+        <v>0</v>
+      </c>
+      <c r="L99" s="14">
+        <v>0</v>
+      </c>
+      <c r="M99" s="14">
+        <v>0</v>
+      </c>
+      <c r="N99" s="14">
+        <v>0</v>
+      </c>
+      <c r="O99" s="14">
+        <v>0</v>
+      </c>
+      <c r="P99" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="14">
+        <v>0</v>
+      </c>
+      <c r="R99" s="14">
+        <v>0</v>
+      </c>
+      <c r="S99" s="14">
+        <v>0</v>
+      </c>
+      <c r="T99" s="14">
+        <v>0</v>
+      </c>
+      <c r="U99" s="14">
+        <v>0</v>
+      </c>
+      <c r="V99" s="14">
+        <v>0</v>
+      </c>
+      <c r="W99" s="14">
+        <v>0</v>
+      </c>
+      <c r="X99" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C100" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="14">
+        <v>0</v>
+      </c>
+      <c r="H100" s="14">
+        <v>0</v>
+      </c>
+      <c r="I100" s="14">
+        <v>0</v>
+      </c>
+      <c r="J100" s="14">
+        <v>0</v>
+      </c>
+      <c r="K100" s="14">
+        <v>0</v>
+      </c>
+      <c r="L100" s="14">
+        <v>0</v>
+      </c>
+      <c r="M100" s="14">
+        <v>0</v>
+      </c>
+      <c r="N100" s="14">
+        <v>0</v>
+      </c>
+      <c r="O100" s="14">
+        <v>0</v>
+      </c>
+      <c r="P100" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="14">
+        <v>0</v>
+      </c>
+      <c r="R100" s="14">
+        <v>0</v>
+      </c>
+      <c r="S100" s="14">
+        <v>0</v>
+      </c>
+      <c r="T100" s="14">
+        <v>0</v>
+      </c>
+      <c r="U100" s="14">
+        <v>0</v>
+      </c>
+      <c r="V100" s="14">
+        <v>0</v>
+      </c>
+      <c r="W100" s="14">
+        <v>0</v>
+      </c>
+      <c r="X100" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C101" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G101" s="14">
+        <v>0</v>
+      </c>
+      <c r="H101" s="14">
+        <v>0</v>
+      </c>
+      <c r="I101" s="14">
+        <v>0</v>
+      </c>
+      <c r="J101" s="14">
+        <v>0</v>
+      </c>
+      <c r="K101" s="14">
+        <v>0</v>
+      </c>
+      <c r="L101" s="14">
+        <v>0</v>
+      </c>
+      <c r="M101" s="14">
+        <v>0</v>
+      </c>
+      <c r="N101" s="14">
+        <v>0</v>
+      </c>
+      <c r="O101" s="14">
+        <v>0</v>
+      </c>
+      <c r="P101" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="14">
+        <v>0</v>
+      </c>
+      <c r="R101" s="14">
+        <v>0</v>
+      </c>
+      <c r="S101" s="14">
+        <v>0</v>
+      </c>
+      <c r="T101" s="14">
+        <v>0</v>
+      </c>
+      <c r="U101" s="14">
+        <v>0</v>
+      </c>
+      <c r="V101" s="14">
+        <v>0</v>
+      </c>
+      <c r="W101" s="14">
+        <v>0</v>
+      </c>
+      <c r="X101" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C102" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G102" s="14">
+        <v>0</v>
+      </c>
+      <c r="H102" s="14">
+        <v>0</v>
+      </c>
+      <c r="I102" s="14">
+        <v>0</v>
+      </c>
+      <c r="J102" s="14">
+        <v>0</v>
+      </c>
+      <c r="K102" s="14">
+        <v>0</v>
+      </c>
+      <c r="L102" s="14">
+        <v>0</v>
+      </c>
+      <c r="M102" s="14">
+        <v>0</v>
+      </c>
+      <c r="N102" s="14">
+        <v>0</v>
+      </c>
+      <c r="O102" s="14">
+        <v>0</v>
+      </c>
+      <c r="P102" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="14">
+        <v>0</v>
+      </c>
+      <c r="R102" s="14">
+        <v>0</v>
+      </c>
+      <c r="S102" s="14">
+        <v>0</v>
+      </c>
+      <c r="T102" s="14">
+        <v>0</v>
+      </c>
+      <c r="U102" s="14">
+        <v>0</v>
+      </c>
+      <c r="V102" s="14">
+        <v>0</v>
+      </c>
+      <c r="W102" s="14">
+        <v>0</v>
+      </c>
+      <c r="X102" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C103" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G103" s="14">
+        <v>0</v>
+      </c>
+      <c r="H103" s="14">
+        <v>0</v>
+      </c>
+      <c r="I103" s="14">
+        <v>0</v>
+      </c>
+      <c r="J103" s="14">
+        <v>0</v>
+      </c>
+      <c r="K103" s="14">
+        <v>0</v>
+      </c>
+      <c r="L103" s="14">
+        <v>0</v>
+      </c>
+      <c r="M103" s="14">
+        <v>0</v>
+      </c>
+      <c r="N103" s="14">
+        <v>0</v>
+      </c>
+      <c r="O103" s="14">
+        <v>0</v>
+      </c>
+      <c r="P103" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="14">
+        <v>0</v>
+      </c>
+      <c r="R103" s="14">
+        <v>0</v>
+      </c>
+      <c r="S103" s="14">
+        <v>0</v>
+      </c>
+      <c r="T103" s="14">
+        <v>0</v>
+      </c>
+      <c r="U103" s="14">
+        <v>0</v>
+      </c>
+      <c r="V103" s="14">
+        <v>0</v>
+      </c>
+      <c r="W103" s="14">
+        <v>0</v>
+      </c>
+      <c r="X103" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y103" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD103" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C104" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G104" s="14">
+        <v>0</v>
+      </c>
+      <c r="H104" s="14">
+        <v>0</v>
+      </c>
+      <c r="I104" s="14">
+        <v>0</v>
+      </c>
+      <c r="J104" s="14">
+        <v>0</v>
+      </c>
+      <c r="K104" s="14">
+        <v>0</v>
+      </c>
+      <c r="L104" s="14">
+        <v>0</v>
+      </c>
+      <c r="M104" s="14">
+        <v>0</v>
+      </c>
+      <c r="N104" s="14">
+        <v>0</v>
+      </c>
+      <c r="O104" s="14">
+        <v>0</v>
+      </c>
+      <c r="P104" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="14">
+        <v>0</v>
+      </c>
+      <c r="R104" s="14">
+        <v>0</v>
+      </c>
+      <c r="S104" s="14">
+        <v>0</v>
+      </c>
+      <c r="T104" s="14">
+        <v>0</v>
+      </c>
+      <c r="U104" s="14">
+        <v>0</v>
+      </c>
+      <c r="V104" s="14">
+        <v>0</v>
+      </c>
+      <c r="W104" s="14">
+        <v>0</v>
+      </c>
+      <c r="X104" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD104" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C105" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G105" s="14">
+        <v>0</v>
+      </c>
+      <c r="H105" s="14">
+        <v>0</v>
+      </c>
+      <c r="I105" s="14">
+        <v>0</v>
+      </c>
+      <c r="J105" s="14">
+        <v>0</v>
+      </c>
+      <c r="K105" s="14">
+        <v>0</v>
+      </c>
+      <c r="L105" s="14">
+        <v>0</v>
+      </c>
+      <c r="M105" s="14">
+        <v>0</v>
+      </c>
+      <c r="N105" s="14">
+        <v>0</v>
+      </c>
+      <c r="O105" s="14">
+        <v>0</v>
+      </c>
+      <c r="P105" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="14">
+        <v>0</v>
+      </c>
+      <c r="R105" s="14">
+        <v>0</v>
+      </c>
+      <c r="S105" s="14">
+        <v>0</v>
+      </c>
+      <c r="T105" s="14">
+        <v>0</v>
+      </c>
+      <c r="U105" s="14">
+        <v>0</v>
+      </c>
+      <c r="V105" s="14">
+        <v>0</v>
+      </c>
+      <c r="W105" s="14">
+        <v>0</v>
+      </c>
+      <c r="X105" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD105" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C106" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G106" s="14">
+        <v>0</v>
+      </c>
+      <c r="H106" s="14">
+        <v>0</v>
+      </c>
+      <c r="I106" s="14">
+        <v>0</v>
+      </c>
+      <c r="J106" s="14">
+        <v>0</v>
+      </c>
+      <c r="K106" s="14">
+        <v>0</v>
+      </c>
+      <c r="L106" s="14">
+        <v>0</v>
+      </c>
+      <c r="M106" s="14">
+        <v>0</v>
+      </c>
+      <c r="N106" s="14">
+        <v>0</v>
+      </c>
+      <c r="O106" s="14">
+        <v>0</v>
+      </c>
+      <c r="P106" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="14">
+        <v>0</v>
+      </c>
+      <c r="R106" s="14">
+        <v>0</v>
+      </c>
+      <c r="S106" s="14">
+        <v>0</v>
+      </c>
+      <c r="T106" s="14">
+        <v>0</v>
+      </c>
+      <c r="U106" s="14">
+        <v>0</v>
+      </c>
+      <c r="V106" s="14">
+        <v>0</v>
+      </c>
+      <c r="W106" s="14">
+        <v>0</v>
+      </c>
+      <c r="X106" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD106" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C107" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G107" s="14">
+        <v>0</v>
+      </c>
+      <c r="H107" s="14">
+        <v>0</v>
+      </c>
+      <c r="I107" s="14">
+        <v>0</v>
+      </c>
+      <c r="J107" s="14">
+        <v>0</v>
+      </c>
+      <c r="K107" s="14">
+        <v>0</v>
+      </c>
+      <c r="L107" s="14">
+        <v>0</v>
+      </c>
+      <c r="M107" s="14">
+        <v>0</v>
+      </c>
+      <c r="N107" s="14">
+        <v>0</v>
+      </c>
+      <c r="O107" s="14">
+        <v>0</v>
+      </c>
+      <c r="P107" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="14">
+        <v>0</v>
+      </c>
+      <c r="R107" s="14">
+        <v>0</v>
+      </c>
+      <c r="S107" s="14">
+        <v>0</v>
+      </c>
+      <c r="T107" s="14">
+        <v>0</v>
+      </c>
+      <c r="U107" s="14">
+        <v>0</v>
+      </c>
+      <c r="V107" s="14">
+        <v>0</v>
+      </c>
+      <c r="W107" s="14">
+        <v>0</v>
+      </c>
+      <c r="X107" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD107" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C108" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G108" s="14">
+        <v>0</v>
+      </c>
+      <c r="H108" s="14">
+        <v>0</v>
+      </c>
+      <c r="I108" s="14">
+        <v>0</v>
+      </c>
+      <c r="J108" s="14">
+        <v>0</v>
+      </c>
+      <c r="K108" s="14">
+        <v>0</v>
+      </c>
+      <c r="L108" s="14">
+        <v>0</v>
+      </c>
+      <c r="M108" s="14">
+        <v>0</v>
+      </c>
+      <c r="N108" s="14">
+        <v>0</v>
+      </c>
+      <c r="O108" s="14">
+        <v>0</v>
+      </c>
+      <c r="P108" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q108" s="14">
+        <v>0</v>
+      </c>
+      <c r="R108" s="14">
+        <v>0</v>
+      </c>
+      <c r="S108" s="14">
+        <v>0</v>
+      </c>
+      <c r="T108" s="14">
+        <v>0</v>
+      </c>
+      <c r="U108" s="14">
+        <v>0</v>
+      </c>
+      <c r="V108" s="14">
+        <v>0</v>
+      </c>
+      <c r="W108" s="14">
+        <v>0</v>
+      </c>
+      <c r="X108" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD108" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C109" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G109" s="14">
+        <v>0</v>
+      </c>
+      <c r="H109" s="14">
+        <v>0</v>
+      </c>
+      <c r="I109" s="14">
+        <v>0</v>
+      </c>
+      <c r="J109" s="14">
+        <v>0</v>
+      </c>
+      <c r="K109" s="14">
+        <v>0</v>
+      </c>
+      <c r="L109" s="14">
+        <v>0</v>
+      </c>
+      <c r="M109" s="14">
+        <v>0</v>
+      </c>
+      <c r="N109" s="14">
+        <v>0</v>
+      </c>
+      <c r="O109" s="14">
+        <v>0</v>
+      </c>
+      <c r="P109" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q109" s="14">
+        <v>0</v>
+      </c>
+      <c r="R109" s="14">
+        <v>0</v>
+      </c>
+      <c r="S109" s="14">
+        <v>0</v>
+      </c>
+      <c r="T109" s="14">
+        <v>0</v>
+      </c>
+      <c r="U109" s="14">
+        <v>0</v>
+      </c>
+      <c r="V109" s="14">
+        <v>0</v>
+      </c>
+      <c r="W109" s="14">
+        <v>0</v>
+      </c>
+      <c r="X109" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y109" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD109" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C110" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G110" s="14">
+        <v>0</v>
+      </c>
+      <c r="H110" s="14">
+        <v>0</v>
+      </c>
+      <c r="I110" s="14">
+        <v>0</v>
+      </c>
+      <c r="J110" s="14">
+        <v>0</v>
+      </c>
+      <c r="K110" s="14">
+        <v>0</v>
+      </c>
+      <c r="L110" s="14">
+        <v>0</v>
+      </c>
+      <c r="M110" s="14">
+        <v>0</v>
+      </c>
+      <c r="N110" s="14">
+        <v>0</v>
+      </c>
+      <c r="O110" s="14">
+        <v>0</v>
+      </c>
+      <c r="P110" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q110" s="14">
+        <v>0</v>
+      </c>
+      <c r="R110" s="14">
+        <v>0</v>
+      </c>
+      <c r="S110" s="14">
+        <v>0</v>
+      </c>
+      <c r="T110" s="14">
+        <v>0</v>
+      </c>
+      <c r="U110" s="14">
+        <v>0</v>
+      </c>
+      <c r="V110" s="14">
+        <v>0</v>
+      </c>
+      <c r="W110" s="14">
+        <v>0</v>
+      </c>
+      <c r="X110" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y110" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD110" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C111" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G111" s="14">
+        <v>0</v>
+      </c>
+      <c r="H111" s="14">
+        <v>0</v>
+      </c>
+      <c r="I111" s="14">
+        <v>0</v>
+      </c>
+      <c r="J111" s="14">
+        <v>0</v>
+      </c>
+      <c r="K111" s="14">
+        <v>0</v>
+      </c>
+      <c r="L111" s="14">
+        <v>0</v>
+      </c>
+      <c r="M111" s="14">
+        <v>0</v>
+      </c>
+      <c r="N111" s="14">
+        <v>0</v>
+      </c>
+      <c r="O111" s="14">
+        <v>0</v>
+      </c>
+      <c r="P111" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q111" s="14">
+        <v>0</v>
+      </c>
+      <c r="R111" s="14">
+        <v>0</v>
+      </c>
+      <c r="S111" s="14">
+        <v>0</v>
+      </c>
+      <c r="T111" s="14">
+        <v>0</v>
+      </c>
+      <c r="U111" s="14">
+        <v>0</v>
+      </c>
+      <c r="V111" s="14">
+        <v>0</v>
+      </c>
+      <c r="W111" s="14">
+        <v>0</v>
+      </c>
+      <c r="X111" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y111" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD111" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C112" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G112" s="14">
+        <v>0</v>
+      </c>
+      <c r="H112" s="14">
+        <v>0</v>
+      </c>
+      <c r="I112" s="14">
+        <v>0</v>
+      </c>
+      <c r="J112" s="14">
+        <v>0</v>
+      </c>
+      <c r="K112" s="14">
+        <v>0</v>
+      </c>
+      <c r="L112" s="14">
+        <v>0</v>
+      </c>
+      <c r="M112" s="14">
+        <v>0</v>
+      </c>
+      <c r="N112" s="14">
+        <v>0</v>
+      </c>
+      <c r="O112" s="14">
+        <v>0</v>
+      </c>
+      <c r="P112" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q112" s="14">
+        <v>0</v>
+      </c>
+      <c r="R112" s="14">
+        <v>0</v>
+      </c>
+      <c r="S112" s="14">
+        <v>0</v>
+      </c>
+      <c r="T112" s="14">
+        <v>0</v>
+      </c>
+      <c r="U112" s="14">
+        <v>0</v>
+      </c>
+      <c r="V112" s="14">
+        <v>0</v>
+      </c>
+      <c r="W112" s="14">
+        <v>0</v>
+      </c>
+      <c r="X112" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD112" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C113" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G113" s="14">
+        <v>0</v>
+      </c>
+      <c r="H113" s="14">
+        <v>0</v>
+      </c>
+      <c r="I113" s="14">
+        <v>0</v>
+      </c>
+      <c r="J113" s="14">
+        <v>0</v>
+      </c>
+      <c r="K113" s="14">
+        <v>0</v>
+      </c>
+      <c r="L113" s="14">
+        <v>0</v>
+      </c>
+      <c r="M113" s="14">
+        <v>0</v>
+      </c>
+      <c r="N113" s="14">
+        <v>0</v>
+      </c>
+      <c r="O113" s="14">
+        <v>0</v>
+      </c>
+      <c r="P113" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q113" s="14">
+        <v>0</v>
+      </c>
+      <c r="R113" s="14">
+        <v>0</v>
+      </c>
+      <c r="S113" s="14">
+        <v>0</v>
+      </c>
+      <c r="T113" s="14">
+        <v>0</v>
+      </c>
+      <c r="U113" s="14">
+        <v>0</v>
+      </c>
+      <c r="V113" s="14">
+        <v>0</v>
+      </c>
+      <c r="W113" s="14">
+        <v>0</v>
+      </c>
+      <c r="X113" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD113" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C114" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G114" s="14">
+        <v>0</v>
+      </c>
+      <c r="H114" s="14">
+        <v>0</v>
+      </c>
+      <c r="I114" s="14">
+        <v>0</v>
+      </c>
+      <c r="J114" s="14">
+        <v>0</v>
+      </c>
+      <c r="K114" s="14">
+        <v>0</v>
+      </c>
+      <c r="L114" s="14">
+        <v>0</v>
+      </c>
+      <c r="M114" s="14">
+        <v>0</v>
+      </c>
+      <c r="N114" s="14">
+        <v>0</v>
+      </c>
+      <c r="O114" s="14">
+        <v>0</v>
+      </c>
+      <c r="P114" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="14">
+        <v>0</v>
+      </c>
+      <c r="R114" s="14">
+        <v>0</v>
+      </c>
+      <c r="S114" s="14">
+        <v>0</v>
+      </c>
+      <c r="T114" s="14">
+        <v>0</v>
+      </c>
+      <c r="U114" s="14">
+        <v>0</v>
+      </c>
+      <c r="V114" s="14">
+        <v>0</v>
+      </c>
+      <c r="W114" s="14">
+        <v>0</v>
+      </c>
+      <c r="X114" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y114" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD114" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C115" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G115" s="14">
+        <v>0</v>
+      </c>
+      <c r="H115" s="14">
+        <v>0</v>
+      </c>
+      <c r="I115" s="14">
+        <v>0</v>
+      </c>
+      <c r="J115" s="14">
+        <v>0</v>
+      </c>
+      <c r="K115" s="14">
+        <v>0</v>
+      </c>
+      <c r="L115" s="14">
+        <v>0</v>
+      </c>
+      <c r="M115" s="14">
+        <v>0</v>
+      </c>
+      <c r="N115" s="14">
+        <v>0</v>
+      </c>
+      <c r="O115" s="14">
+        <v>0</v>
+      </c>
+      <c r="P115" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q115" s="14">
+        <v>0</v>
+      </c>
+      <c r="R115" s="14">
+        <v>0</v>
+      </c>
+      <c r="S115" s="14">
+        <v>0</v>
+      </c>
+      <c r="T115" s="14">
+        <v>0</v>
+      </c>
+      <c r="U115" s="14">
+        <v>0</v>
+      </c>
+      <c r="V115" s="14">
+        <v>0</v>
+      </c>
+      <c r="W115" s="14">
+        <v>0</v>
+      </c>
+      <c r="X115" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD115" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C116" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G116" s="14">
+        <v>0</v>
+      </c>
+      <c r="H116" s="14">
+        <v>0</v>
+      </c>
+      <c r="I116" s="14">
+        <v>0</v>
+      </c>
+      <c r="J116" s="14">
+        <v>0</v>
+      </c>
+      <c r="K116" s="14">
+        <v>0</v>
+      </c>
+      <c r="L116" s="14">
+        <v>0</v>
+      </c>
+      <c r="M116" s="14">
+        <v>0</v>
+      </c>
+      <c r="N116" s="14">
+        <v>0</v>
+      </c>
+      <c r="O116" s="14">
+        <v>0</v>
+      </c>
+      <c r="P116" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q116" s="14">
+        <v>0</v>
+      </c>
+      <c r="R116" s="14">
+        <v>0</v>
+      </c>
+      <c r="S116" s="14">
+        <v>0</v>
+      </c>
+      <c r="T116" s="14">
+        <v>0</v>
+      </c>
+      <c r="U116" s="14">
+        <v>0</v>
+      </c>
+      <c r="V116" s="14">
+        <v>0</v>
+      </c>
+      <c r="W116" s="14">
+        <v>0</v>
+      </c>
+      <c r="X116" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD116" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C117" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G117" s="14">
+        <v>0</v>
+      </c>
+      <c r="H117" s="14">
+        <v>0</v>
+      </c>
+      <c r="I117" s="14">
+        <v>0</v>
+      </c>
+      <c r="J117" s="14">
+        <v>0</v>
+      </c>
+      <c r="K117" s="14">
+        <v>0</v>
+      </c>
+      <c r="L117" s="14">
+        <v>0</v>
+      </c>
+      <c r="M117" s="14">
+        <v>0</v>
+      </c>
+      <c r="N117" s="14">
+        <v>0</v>
+      </c>
+      <c r="O117" s="14">
+        <v>0</v>
+      </c>
+      <c r="P117" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="14">
+        <v>0</v>
+      </c>
+      <c r="R117" s="14">
+        <v>0</v>
+      </c>
+      <c r="S117" s="14">
+        <v>0</v>
+      </c>
+      <c r="T117" s="14">
+        <v>0</v>
+      </c>
+      <c r="U117" s="14">
+        <v>0</v>
+      </c>
+      <c r="V117" s="14">
+        <v>0</v>
+      </c>
+      <c r="W117" s="14">
+        <v>0</v>
+      </c>
+      <c r="X117" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD117" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C118" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G118" s="14">
+        <v>0</v>
+      </c>
+      <c r="H118" s="14">
+        <v>0</v>
+      </c>
+      <c r="I118" s="14">
+        <v>0</v>
+      </c>
+      <c r="J118" s="14">
+        <v>0</v>
+      </c>
+      <c r="K118" s="14">
+        <v>0</v>
+      </c>
+      <c r="L118" s="14">
+        <v>0</v>
+      </c>
+      <c r="M118" s="14">
+        <v>0</v>
+      </c>
+      <c r="N118" s="14">
+        <v>0</v>
+      </c>
+      <c r="O118" s="14">
+        <v>0</v>
+      </c>
+      <c r="P118" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="14">
+        <v>0</v>
+      </c>
+      <c r="R118" s="14">
+        <v>0</v>
+      </c>
+      <c r="S118" s="14">
+        <v>0</v>
+      </c>
+      <c r="T118" s="14">
+        <v>0</v>
+      </c>
+      <c r="U118" s="14">
+        <v>0</v>
+      </c>
+      <c r="V118" s="14">
+        <v>0</v>
+      </c>
+      <c r="W118" s="14">
+        <v>0</v>
+      </c>
+      <c r="X118" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y118" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD118" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C119" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G119" s="14">
+        <v>0</v>
+      </c>
+      <c r="H119" s="14">
+        <v>0</v>
+      </c>
+      <c r="I119" s="14">
+        <v>0</v>
+      </c>
+      <c r="J119" s="14">
+        <v>0</v>
+      </c>
+      <c r="K119" s="14">
+        <v>0</v>
+      </c>
+      <c r="L119" s="14">
+        <v>0</v>
+      </c>
+      <c r="M119" s="14">
+        <v>0</v>
+      </c>
+      <c r="N119" s="14">
+        <v>0</v>
+      </c>
+      <c r="O119" s="14">
+        <v>0</v>
+      </c>
+      <c r="P119" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="14">
+        <v>0</v>
+      </c>
+      <c r="R119" s="14">
+        <v>0</v>
+      </c>
+      <c r="S119" s="14">
+        <v>0</v>
+      </c>
+      <c r="T119" s="14">
+        <v>0</v>
+      </c>
+      <c r="U119" s="14">
+        <v>0</v>
+      </c>
+      <c r="V119" s="14">
+        <v>0</v>
+      </c>
+      <c r="W119" s="14">
+        <v>0</v>
+      </c>
+      <c r="X119" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y119" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD119" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C120" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G120" s="14">
+        <v>0</v>
+      </c>
+      <c r="H120" s="14">
+        <v>0</v>
+      </c>
+      <c r="I120" s="14">
+        <v>0</v>
+      </c>
+      <c r="J120" s="14">
+        <v>0</v>
+      </c>
+      <c r="K120" s="14">
+        <v>0</v>
+      </c>
+      <c r="L120" s="14">
+        <v>0</v>
+      </c>
+      <c r="M120" s="14">
+        <v>0</v>
+      </c>
+      <c r="N120" s="14">
+        <v>0</v>
+      </c>
+      <c r="O120" s="14">
+        <v>0</v>
+      </c>
+      <c r="P120" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="14">
+        <v>0</v>
+      </c>
+      <c r="R120" s="14">
+        <v>0</v>
+      </c>
+      <c r="S120" s="14">
+        <v>0</v>
+      </c>
+      <c r="T120" s="14">
+        <v>0</v>
+      </c>
+      <c r="U120" s="14">
+        <v>0</v>
+      </c>
+      <c r="V120" s="14">
+        <v>0</v>
+      </c>
+      <c r="W120" s="14">
+        <v>0</v>
+      </c>
+      <c r="X120" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD120" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C121" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G121" s="14">
+        <v>0</v>
+      </c>
+      <c r="H121" s="14">
+        <v>0</v>
+      </c>
+      <c r="I121" s="14">
+        <v>0</v>
+      </c>
+      <c r="J121" s="14">
+        <v>0</v>
+      </c>
+      <c r="K121" s="14">
+        <v>0</v>
+      </c>
+      <c r="L121" s="14">
+        <v>0</v>
+      </c>
+      <c r="M121" s="14">
+        <v>0</v>
+      </c>
+      <c r="N121" s="14">
+        <v>0</v>
+      </c>
+      <c r="O121" s="14">
+        <v>0</v>
+      </c>
+      <c r="P121" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="14">
+        <v>0</v>
+      </c>
+      <c r="R121" s="14">
+        <v>0</v>
+      </c>
+      <c r="S121" s="14">
+        <v>0</v>
+      </c>
+      <c r="T121" s="14">
+        <v>0</v>
+      </c>
+      <c r="U121" s="14">
+        <v>0</v>
+      </c>
+      <c r="V121" s="14">
+        <v>0</v>
+      </c>
+      <c r="W121" s="14">
+        <v>0</v>
+      </c>
+      <c r="X121" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB121" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC121" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD121" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C122" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G122" s="14">
+        <v>0</v>
+      </c>
+      <c r="H122" s="14">
+        <v>0</v>
+      </c>
+      <c r="I122" s="14">
+        <v>0</v>
+      </c>
+      <c r="J122" s="14">
+        <v>0</v>
+      </c>
+      <c r="K122" s="14">
+        <v>0</v>
+      </c>
+      <c r="L122" s="14">
+        <v>0</v>
+      </c>
+      <c r="M122" s="14">
+        <v>0</v>
+      </c>
+      <c r="N122" s="14">
+        <v>0</v>
+      </c>
+      <c r="O122" s="14">
+        <v>0</v>
+      </c>
+      <c r="P122" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="14">
+        <v>0</v>
+      </c>
+      <c r="R122" s="14">
+        <v>0</v>
+      </c>
+      <c r="S122" s="14">
+        <v>0</v>
+      </c>
+      <c r="T122" s="14">
+        <v>0</v>
+      </c>
+      <c r="U122" s="14">
+        <v>0</v>
+      </c>
+      <c r="V122" s="14">
+        <v>0</v>
+      </c>
+      <c r="W122" s="14">
+        <v>0</v>
+      </c>
+      <c r="X122" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y122" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB122" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD122" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C123" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="14">
+        <v>0</v>
+      </c>
+      <c r="H123" s="14">
+        <v>0</v>
+      </c>
+      <c r="I123" s="14">
+        <v>0</v>
+      </c>
+      <c r="J123" s="14">
+        <v>0</v>
+      </c>
+      <c r="K123" s="14">
+        <v>0</v>
+      </c>
+      <c r="L123" s="14">
+        <v>0</v>
+      </c>
+      <c r="M123" s="14">
+        <v>0</v>
+      </c>
+      <c r="N123" s="14">
+        <v>0</v>
+      </c>
+      <c r="O123" s="14">
+        <v>0</v>
+      </c>
+      <c r="P123" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="14">
+        <v>0</v>
+      </c>
+      <c r="R123" s="14">
+        <v>0</v>
+      </c>
+      <c r="S123" s="14">
+        <v>0</v>
+      </c>
+      <c r="T123" s="14">
+        <v>0</v>
+      </c>
+      <c r="U123" s="14">
+        <v>0</v>
+      </c>
+      <c r="V123" s="14">
+        <v>0</v>
+      </c>
+      <c r="W123" s="14">
+        <v>0</v>
+      </c>
+      <c r="X123" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y123" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB123" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD123" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C124" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G124" s="14">
+        <v>0</v>
+      </c>
+      <c r="H124" s="14">
+        <v>0</v>
+      </c>
+      <c r="I124" s="14">
+        <v>0</v>
+      </c>
+      <c r="J124" s="14">
+        <v>0</v>
+      </c>
+      <c r="K124" s="14">
+        <v>0</v>
+      </c>
+      <c r="L124" s="14">
+        <v>0</v>
+      </c>
+      <c r="M124" s="14">
+        <v>0</v>
+      </c>
+      <c r="N124" s="14">
+        <v>0</v>
+      </c>
+      <c r="O124" s="14">
+        <v>0</v>
+      </c>
+      <c r="P124" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="14">
+        <v>0</v>
+      </c>
+      <c r="R124" s="14">
+        <v>0</v>
+      </c>
+      <c r="S124" s="14">
+        <v>0</v>
+      </c>
+      <c r="T124" s="14">
+        <v>0</v>
+      </c>
+      <c r="U124" s="14">
+        <v>0</v>
+      </c>
+      <c r="V124" s="14">
+        <v>0</v>
+      </c>
+      <c r="W124" s="14">
+        <v>0</v>
+      </c>
+      <c r="X124" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD124" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C125" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G125" s="14">
+        <v>0</v>
+      </c>
+      <c r="H125" s="14">
+        <v>0</v>
+      </c>
+      <c r="I125" s="14">
+        <v>0</v>
+      </c>
+      <c r="J125" s="14">
+        <v>0</v>
+      </c>
+      <c r="K125" s="14">
+        <v>0</v>
+      </c>
+      <c r="L125" s="14">
+        <v>0</v>
+      </c>
+      <c r="M125" s="14">
+        <v>0</v>
+      </c>
+      <c r="N125" s="14">
+        <v>0</v>
+      </c>
+      <c r="O125" s="14">
+        <v>0</v>
+      </c>
+      <c r="P125" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="14">
+        <v>0</v>
+      </c>
+      <c r="R125" s="14">
+        <v>0</v>
+      </c>
+      <c r="S125" s="14">
+        <v>0</v>
+      </c>
+      <c r="T125" s="14">
+        <v>0</v>
+      </c>
+      <c r="U125" s="14">
+        <v>0</v>
+      </c>
+      <c r="V125" s="14">
+        <v>0</v>
+      </c>
+      <c r="W125" s="14">
+        <v>0</v>
+      </c>
+      <c r="X125" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB125" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD125" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C126" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G126" s="14">
+        <v>0</v>
+      </c>
+      <c r="H126" s="14">
+        <v>0</v>
+      </c>
+      <c r="I126" s="14">
+        <v>0</v>
+      </c>
+      <c r="J126" s="14">
+        <v>0</v>
+      </c>
+      <c r="K126" s="14">
+        <v>0</v>
+      </c>
+      <c r="L126" s="14">
+        <v>0</v>
+      </c>
+      <c r="M126" s="14">
+        <v>0</v>
+      </c>
+      <c r="N126" s="14">
+        <v>0</v>
+      </c>
+      <c r="O126" s="14">
+        <v>0</v>
+      </c>
+      <c r="P126" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q126" s="14">
+        <v>0</v>
+      </c>
+      <c r="R126" s="14">
+        <v>0</v>
+      </c>
+      <c r="S126" s="14">
+        <v>0</v>
+      </c>
+      <c r="T126" s="14">
+        <v>0</v>
+      </c>
+      <c r="U126" s="14">
+        <v>0</v>
+      </c>
+      <c r="V126" s="14">
+        <v>0</v>
+      </c>
+      <c r="W126" s="14">
+        <v>0</v>
+      </c>
+      <c r="X126" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y126" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z126" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB126" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC126" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD126" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C127" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G127" s="14">
+        <v>0</v>
+      </c>
+      <c r="H127" s="14">
+        <v>0</v>
+      </c>
+      <c r="I127" s="14">
+        <v>0</v>
+      </c>
+      <c r="J127" s="14">
+        <v>0</v>
+      </c>
+      <c r="K127" s="14">
+        <v>0</v>
+      </c>
+      <c r="L127" s="14">
+        <v>0</v>
+      </c>
+      <c r="M127" s="14">
+        <v>0</v>
+      </c>
+      <c r="N127" s="14">
+        <v>0</v>
+      </c>
+      <c r="O127" s="14">
+        <v>0</v>
+      </c>
+      <c r="P127" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q127" s="14">
+        <v>0</v>
+      </c>
+      <c r="R127" s="14">
+        <v>0</v>
+      </c>
+      <c r="S127" s="14">
+        <v>0</v>
+      </c>
+      <c r="T127" s="14">
+        <v>0</v>
+      </c>
+      <c r="U127" s="14">
+        <v>0</v>
+      </c>
+      <c r="V127" s="14">
+        <v>0</v>
+      </c>
+      <c r="W127" s="14">
+        <v>0</v>
+      </c>
+      <c r="X127" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y127" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z127" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB127" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC127" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD127" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C128" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G128" s="14">
+        <v>0</v>
+      </c>
+      <c r="H128" s="14">
+        <v>0</v>
+      </c>
+      <c r="I128" s="14">
+        <v>0</v>
+      </c>
+      <c r="J128" s="14">
+        <v>0</v>
+      </c>
+      <c r="K128" s="14">
+        <v>0</v>
+      </c>
+      <c r="L128" s="14">
+        <v>0</v>
+      </c>
+      <c r="M128" s="14">
+        <v>0</v>
+      </c>
+      <c r="N128" s="14">
+        <v>0</v>
+      </c>
+      <c r="O128" s="14">
+        <v>0</v>
+      </c>
+      <c r="P128" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="14">
+        <v>0</v>
+      </c>
+      <c r="R128" s="14">
+        <v>0</v>
+      </c>
+      <c r="S128" s="14">
+        <v>0</v>
+      </c>
+      <c r="T128" s="14">
+        <v>0</v>
+      </c>
+      <c r="U128" s="14">
+        <v>0</v>
+      </c>
+      <c r="V128" s="14">
+        <v>0</v>
+      </c>
+      <c r="W128" s="14">
+        <v>0</v>
+      </c>
+      <c r="X128" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD128" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C129" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G129" s="14">
+        <v>0</v>
+      </c>
+      <c r="H129" s="14">
+        <v>0</v>
+      </c>
+      <c r="I129" s="14">
+        <v>0</v>
+      </c>
+      <c r="J129" s="14">
+        <v>0</v>
+      </c>
+      <c r="K129" s="14">
+        <v>0</v>
+      </c>
+      <c r="L129" s="14">
+        <v>0</v>
+      </c>
+      <c r="M129" s="14">
+        <v>0</v>
+      </c>
+      <c r="N129" s="14">
+        <v>0</v>
+      </c>
+      <c r="O129" s="14">
+        <v>0</v>
+      </c>
+      <c r="P129" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q129" s="14">
+        <v>0</v>
+      </c>
+      <c r="R129" s="14">
+        <v>0</v>
+      </c>
+      <c r="S129" s="14">
+        <v>0</v>
+      </c>
+      <c r="T129" s="14">
+        <v>0</v>
+      </c>
+      <c r="U129" s="14">
+        <v>0</v>
+      </c>
+      <c r="V129" s="14">
+        <v>0</v>
+      </c>
+      <c r="W129" s="14">
+        <v>0</v>
+      </c>
+      <c r="X129" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y129" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB129" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD129" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C130" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G130" s="14">
+        <v>0</v>
+      </c>
+      <c r="H130" s="14">
+        <v>0</v>
+      </c>
+      <c r="I130" s="14">
+        <v>0</v>
+      </c>
+      <c r="J130" s="14">
+        <v>0</v>
+      </c>
+      <c r="K130" s="14">
+        <v>0</v>
+      </c>
+      <c r="L130" s="14">
+        <v>0</v>
+      </c>
+      <c r="M130" s="14">
+        <v>0</v>
+      </c>
+      <c r="N130" s="14">
+        <v>0</v>
+      </c>
+      <c r="O130" s="14">
+        <v>0</v>
+      </c>
+      <c r="P130" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q130" s="14">
+        <v>0</v>
+      </c>
+      <c r="R130" s="14">
+        <v>0</v>
+      </c>
+      <c r="S130" s="14">
+        <v>0</v>
+      </c>
+      <c r="T130" s="14">
+        <v>0</v>
+      </c>
+      <c r="U130" s="14">
+        <v>0</v>
+      </c>
+      <c r="V130" s="14">
+        <v>0</v>
+      </c>
+      <c r="W130" s="14">
+        <v>0</v>
+      </c>
+      <c r="X130" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y130" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z130" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB130" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD130" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C131" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G131" s="14">
+        <v>0</v>
+      </c>
+      <c r="H131" s="14">
+        <v>0</v>
+      </c>
+      <c r="I131" s="14">
+        <v>0</v>
+      </c>
+      <c r="J131" s="14">
+        <v>0</v>
+      </c>
+      <c r="K131" s="14">
+        <v>0</v>
+      </c>
+      <c r="L131" s="14">
+        <v>0</v>
+      </c>
+      <c r="M131" s="14">
+        <v>0</v>
+      </c>
+      <c r="N131" s="14">
+        <v>0</v>
+      </c>
+      <c r="O131" s="14">
+        <v>0</v>
+      </c>
+      <c r="P131" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q131" s="14">
+        <v>0</v>
+      </c>
+      <c r="R131" s="14">
+        <v>0</v>
+      </c>
+      <c r="S131" s="14">
+        <v>0</v>
+      </c>
+      <c r="T131" s="14">
+        <v>0</v>
+      </c>
+      <c r="U131" s="14">
+        <v>0</v>
+      </c>
+      <c r="V131" s="14">
+        <v>0</v>
+      </c>
+      <c r="W131" s="14">
+        <v>0</v>
+      </c>
+      <c r="X131" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y131" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB131" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD131" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C132" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G132" s="14">
+        <v>0</v>
+      </c>
+      <c r="H132" s="14">
+        <v>0</v>
+      </c>
+      <c r="I132" s="14">
+        <v>0</v>
+      </c>
+      <c r="J132" s="14">
+        <v>0</v>
+      </c>
+      <c r="K132" s="14">
+        <v>0</v>
+      </c>
+      <c r="L132" s="14">
+        <v>0</v>
+      </c>
+      <c r="M132" s="14">
+        <v>0</v>
+      </c>
+      <c r="N132" s="14">
+        <v>0</v>
+      </c>
+      <c r="O132" s="14">
+        <v>0</v>
+      </c>
+      <c r="P132" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q132" s="14">
+        <v>0</v>
+      </c>
+      <c r="R132" s="14">
+        <v>0</v>
+      </c>
+      <c r="S132" s="14">
+        <v>0</v>
+      </c>
+      <c r="T132" s="14">
+        <v>0</v>
+      </c>
+      <c r="U132" s="14">
+        <v>0</v>
+      </c>
+      <c r="V132" s="14">
+        <v>0</v>
+      </c>
+      <c r="W132" s="14">
+        <v>0</v>
+      </c>
+      <c r="X132" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD132" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:30" x14ac:dyDescent="0.45">
+      <c r="C133" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G133" s="14">
+        <v>0</v>
+      </c>
+      <c r="H133" s="14">
+        <v>0</v>
+      </c>
+      <c r="I133" s="14">
+        <v>0</v>
+      </c>
+      <c r="J133" s="14">
+        <v>0</v>
+      </c>
+      <c r="K133" s="14">
+        <v>0</v>
+      </c>
+      <c r="L133" s="14">
+        <v>0</v>
+      </c>
+      <c r="M133" s="14">
+        <v>0</v>
+      </c>
+      <c r="N133" s="14">
+        <v>0</v>
+      </c>
+      <c r="O133" s="14">
+        <v>0</v>
+      </c>
+      <c r="P133" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q133" s="14">
+        <v>0</v>
+      </c>
+      <c r="R133" s="14">
+        <v>0</v>
+      </c>
+      <c r="S133" s="14">
+        <v>0</v>
+      </c>
+      <c r="T133" s="14">
+        <v>0</v>
+      </c>
+      <c r="U133" s="14">
+        <v>0</v>
+      </c>
+      <c r="V133" s="14">
+        <v>0</v>
+      </c>
+      <c r="W133" s="14">
+        <v>0</v>
+      </c>
+      <c r="X133" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y133" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB133" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD133" s="14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>

--- a/data/example/Power_Demand.xlsx
+++ b/data/example/Power_Demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Desktop\GIT\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7EBD50-AAAC-4400-8FD6-DDC90A9CBE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79785D9-3EBF-48E1-97CD-3FFE12616C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="14235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
@@ -775,10 +775,10 @@
   <dimension ref="A1:AD133"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D135" sqref="D135"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/example/Power_Demand.xlsx
+++ b/data/example/Power_Demand.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ScenarioA" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ScenarioA" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -629,7 +629,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.2</t>
+          <t>v0.1.3</t>
         </is>
       </c>
     </row>
@@ -1157,122 +1157,122 @@
       </c>
       <c r="G7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="H7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="I7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="J7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="K7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="L7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="M7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="N7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="O7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="P7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="Q7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="R7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="S7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="T7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="U7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="V7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="W7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="X7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="Y7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="Z7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="AA7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="AB7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="AC7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
       <c r="AD7" s="10" t="inlineStr">
         <is>
-          <t>[MWh]</t>
+          <t>[MW]</t>
         </is>
       </c>
     </row>

--- a/data/example/Power_Demand.xlsx
+++ b/data/example/Power_Demand.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.3</t>
+          <t>v0.1.4</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Demand at node for representative hour k</t>
+          <t>Demand at this representative time step k</t>
         </is>
       </c>
       <c r="H5" s="7" t="n"/>

--- a/data/example/Power_Demand.xlsx
+++ b/data/example/Power_Demand.xlsx
@@ -585,7 +585,7 @@
     <col width="11.2809375" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/example/Power_Demand.xlsx
+++ b/data/example/Power_Demand.xlsx
@@ -28,7 +28,7 @@
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -43,7 +43,7 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
@@ -60,38 +60,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
   </fills>
@@ -536,7 +536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -553,36 +553,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
-    <col width="24.5709375" customWidth="1" min="5" max="5"/>
-    <col width="24.5709375" customWidth="1" min="6" max="6"/>
-    <col width="11.2809375" customWidth="1" min="7" max="7"/>
-    <col width="11.2809375" customWidth="1" min="8" max="8"/>
-    <col width="11.2809375" customWidth="1" min="9" max="9"/>
-    <col width="11.2809375" customWidth="1" min="10" max="10"/>
-    <col width="11.2809375" customWidth="1" min="11" max="11"/>
-    <col width="11.2809375" customWidth="1" min="12" max="12"/>
-    <col width="11.2809375" customWidth="1" min="13" max="13"/>
-    <col width="11.2809375" customWidth="1" min="14" max="14"/>
-    <col width="11.2809375" customWidth="1" min="15" max="15"/>
-    <col width="11.2809375" customWidth="1" min="16" max="16"/>
-    <col width="11.2809375" customWidth="1" min="17" max="17"/>
-    <col width="11.2809375" customWidth="1" min="18" max="18"/>
-    <col width="11.2809375" customWidth="1" min="19" max="19"/>
-    <col width="11.2809375" customWidth="1" min="20" max="20"/>
-    <col width="11.2809375" customWidth="1" min="21" max="21"/>
-    <col width="11.2809375" customWidth="1" min="22" max="22"/>
-    <col width="11.2809375" customWidth="1" min="23" max="23"/>
-    <col width="11.2809375" customWidth="1" min="24" max="24"/>
-    <col width="11.2809375" customWidth="1" min="25" max="25"/>
-    <col width="11.2809375" customWidth="1" min="26" max="26"/>
-    <col width="11.2809375" customWidth="1" min="27" max="27"/>
-    <col width="11.2809375" customWidth="1" min="28" max="28"/>
-    <col width="11.2809375" customWidth="1" min="29" max="29"/>
-    <col width="11.2809375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.5703125" customWidth="1" min="6" max="6"/>
+    <col width="11.28515625" customWidth="1" min="7" max="7"/>
+    <col width="11.28515625" customWidth="1" min="8" max="8"/>
+    <col width="11.28515625" customWidth="1" min="9" max="9"/>
+    <col width="11.28515625" customWidth="1" min="10" max="10"/>
+    <col width="11.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.28515625" customWidth="1" min="12" max="12"/>
+    <col width="11.28515625" customWidth="1" min="13" max="13"/>
+    <col width="11.28515625" customWidth="1" min="14" max="14"/>
+    <col width="11.28515625" customWidth="1" min="15" max="15"/>
+    <col width="11.28515625" customWidth="1" min="16" max="16"/>
+    <col width="11.28515625" customWidth="1" min="17" max="17"/>
+    <col width="11.28515625" customWidth="1" min="18" max="18"/>
+    <col width="11.28515625" customWidth="1" min="19" max="19"/>
+    <col width="11.28515625" customWidth="1" min="20" max="20"/>
+    <col width="11.28515625" customWidth="1" min="21" max="21"/>
+    <col width="11.28515625" customWidth="1" min="22" max="22"/>
+    <col width="11.28515625" customWidth="1" min="23" max="23"/>
+    <col width="11.28515625" customWidth="1" min="24" max="24"/>
+    <col width="11.28515625" customWidth="1" min="25" max="25"/>
+    <col width="11.28515625" customWidth="1" min="26" max="26"/>
+    <col width="11.28515625" customWidth="1" min="27" max="27"/>
+    <col width="11.28515625" customWidth="1" min="28" max="28"/>
+    <col width="11.28515625" customWidth="1" min="29" max="29"/>
+    <col width="11.28515625" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -7389,6 +7389,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>